--- a/sample.xlsx
+++ b/sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\runra\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\runra\Desktop\RFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69E1760C-41A6-41FB-B195-B6BB906292E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6457922D-7B21-4C92-9358-54C2558E8C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="data5" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -35,9 +34,6 @@
     <t>訂單日期</t>
   </si>
   <si>
-    <t>小計金額</t>
-  </si>
-  <si>
     <t>CustomerID</t>
   </si>
   <si>
@@ -681,6 +677,23 @@
   </si>
   <si>
     <t>Order541565</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">小計金額 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>限數字</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -688,9 +701,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -832,6 +845,14 @@
       <sz val="9"/>
       <name val="細明體"/>
       <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -1129,7 +1150,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1646,7 +1667,7 @@
   <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1665,7 +1686,7 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="34">
+    <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1676,29 +1697,29 @@
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="34">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="34">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C4" s="2">
         <v>44319</v>
@@ -1707,12 +1728,12 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="34">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C5" s="2">
         <v>44319</v>
@@ -1721,12 +1742,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2">
         <v>44353</v>
@@ -1735,12 +1756,12 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="34">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2">
         <v>44359</v>
@@ -1749,12 +1770,12 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="34">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2">
         <v>44385</v>
@@ -1763,12 +1784,12 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="34">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2">
         <v>44439</v>
@@ -1777,12 +1798,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="34">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2">
         <v>44512</v>
@@ -1791,12 +1812,12 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="34">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2">
         <v>44604</v>
@@ -1805,12 +1826,12 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="34">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2">
         <v>44607</v>
@@ -1819,12 +1840,12 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="34">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2">
         <v>44610</v>
@@ -1833,12 +1854,12 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="34">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2">
         <v>44634</v>
@@ -1847,12 +1868,12 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="34">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2">
         <v>44644</v>
@@ -1861,12 +1882,12 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="34">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2">
         <v>44664</v>
@@ -1875,12 +1896,12 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="34">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2">
         <v>44669</v>
@@ -1889,12 +1910,12 @@
         <v>10.08</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="34">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2">
         <v>44675</v>
@@ -1903,12 +1924,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="34">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2">
         <v>44682</v>
@@ -1917,12 +1938,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="34">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="2">
         <v>44688</v>
@@ -1931,12 +1952,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="34">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C21" s="2">
         <v>44360</v>
@@ -1945,12 +1966,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="34">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="2">
         <v>44425</v>
@@ -1959,12 +1980,12 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="34">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2">
         <v>44489</v>
@@ -1973,12 +1994,12 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="34">
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="2">
         <v>44494</v>
@@ -1987,12 +2008,12 @@
         <v>7.95</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="34">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="2">
         <v>44513</v>
@@ -2001,12 +2022,12 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="34">
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="2">
         <v>44558</v>
@@ -2015,12 +2036,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="34">
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="2">
         <v>44597</v>
@@ -2029,12 +2050,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="34">
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="2">
         <v>44597</v>
@@ -2043,12 +2064,12 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="34">
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="2">
         <v>44613</v>
@@ -2057,12 +2078,12 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="34">
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C30" s="2">
         <v>44238</v>
@@ -2071,12 +2092,12 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="34">
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="2">
         <v>44265</v>
@@ -2085,12 +2106,12 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="34">
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="2">
         <v>44488</v>
@@ -2099,12 +2120,12 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="34">
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C33" s="2">
         <v>44510</v>
@@ -2113,12 +2134,12 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="34">
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="2">
         <v>44522</v>
@@ -2127,12 +2148,12 @@
         <v>27.04</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="34">
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="2">
         <v>44524</v>
@@ -2141,12 +2162,12 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="34">
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" s="2">
         <v>44597</v>
@@ -2155,12 +2176,12 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="34">
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="2">
         <v>44603</v>
@@ -2169,12 +2190,12 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="34">
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="2">
         <v>44619</v>
@@ -2183,12 +2204,12 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="34">
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="2">
         <v>44622</v>
@@ -2197,12 +2218,12 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="34">
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="2">
         <v>44654</v>
@@ -2211,12 +2232,12 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="34">
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" s="2">
         <v>44664</v>
@@ -2225,12 +2246,12 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="34">
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2">
         <v>44664</v>
@@ -2239,12 +2260,12 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="34">
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C43" s="2">
         <v>44323</v>
@@ -2253,12 +2274,12 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="34">
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="2">
         <v>44328</v>
@@ -2267,12 +2288,12 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="34">
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="2">
         <v>44330</v>
@@ -2281,12 +2302,12 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="34">
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" s="2">
         <v>44400</v>
@@ -2295,12 +2316,12 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="34">
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" s="2">
         <v>44418</v>
@@ -2309,12 +2330,12 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="34">
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48" s="2">
         <v>44472</v>
@@ -2323,12 +2344,12 @@
         <v>13.75</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="34">
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" s="2">
         <v>44482</v>
@@ -2337,12 +2358,12 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="34">
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2">
         <v>44484</v>
@@ -2351,12 +2372,12 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="34">
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2">
         <v>44564</v>
@@ -2365,12 +2386,12 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="34">
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2">
         <v>44618</v>
@@ -2379,12 +2400,12 @@
         <v>9.9600000000000009</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="34">
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2">
         <v>44620</v>
@@ -2393,12 +2414,12 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="34">
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2">
         <v>44674</v>
@@ -2407,12 +2428,12 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="34">
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2">
         <v>44681</v>
@@ -2421,12 +2442,12 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="34">
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2">
         <v>44688</v>
@@ -2435,12 +2456,12 @@
         <v>14.85</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="34">
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="C57" s="2">
         <v>44323</v>
@@ -2449,12 +2470,12 @@
         <v>14.75</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="34">
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2">
         <v>44330</v>
@@ -2463,12 +2484,12 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="34">
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2">
         <v>44450</v>
@@ -2477,12 +2498,12 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="34">
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2">
         <v>44452</v>
@@ -2491,12 +2512,12 @@
         <v>10.08</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="34">
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2">
         <v>44452</v>
@@ -2505,12 +2526,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="34">
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2">
         <v>44482</v>
@@ -2519,12 +2540,12 @@
         <v>19.920000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="34">
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2">
         <v>44549</v>
@@ -2533,12 +2554,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="34">
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2">
         <v>44555</v>
@@ -2547,12 +2568,12 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="34">
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C65" s="2">
         <v>44582</v>
@@ -2561,12 +2582,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="34">
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C66" s="2">
         <v>44604</v>
@@ -2575,12 +2596,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="34">
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" s="2">
         <v>44623</v>
@@ -2589,12 +2610,12 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="34">
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C68" s="2">
         <v>44630</v>
@@ -2603,12 +2624,12 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="34">
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C69" s="2">
         <v>44633</v>
@@ -2617,12 +2638,12 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="34">
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C70" s="2">
         <v>44650</v>
@@ -2631,12 +2652,12 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="34">
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C71" s="2">
         <v>44658</v>
@@ -2645,12 +2666,12 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="34">
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" s="2">
         <v>44659</v>
@@ -2659,12 +2680,12 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="34">
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C73" s="2">
         <v>44661</v>
@@ -2673,12 +2694,12 @@
         <v>16.579999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="34">
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C74" s="2">
         <v>44679</v>
@@ -2687,12 +2708,12 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="34">
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75" s="2">
         <v>44682</v>
@@ -2701,12 +2722,12 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="34">
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C76" s="2">
         <v>44690</v>
@@ -2715,12 +2736,12 @@
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="34">
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C77" s="2">
         <v>44318</v>
@@ -2729,12 +2750,12 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="34">
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C78" s="2">
         <v>44330</v>
@@ -2743,12 +2764,12 @@
         <v>10.08</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="34">
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C79" s="2">
         <v>44359</v>
@@ -2757,12 +2778,12 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="34">
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C80" s="2">
         <v>44366</v>
@@ -2771,12 +2792,12 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="34">
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="2">
         <v>44431</v>
@@ -2785,12 +2806,12 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="34">
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C82" s="2">
         <v>44457</v>
@@ -2799,12 +2820,12 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="34">
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C83" s="2">
         <v>44467</v>
@@ -2813,12 +2834,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="34">
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C84" s="2">
         <v>44520</v>
@@ -2827,12 +2848,12 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="34">
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C85" s="2">
         <v>44551</v>
@@ -2841,12 +2862,12 @@
         <v>15.36</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="34">
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C86" s="2">
         <v>44565</v>
@@ -2855,12 +2876,12 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="34">
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C87" s="2">
         <v>44565</v>
@@ -2869,12 +2890,12 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="34">
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C88" s="2">
         <v>44607</v>
@@ -2883,12 +2904,12 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="34">
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C89" s="2">
         <v>44652</v>
@@ -2897,12 +2918,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="34">
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C90" s="2">
         <v>44657</v>
@@ -2911,12 +2932,12 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="34">
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C91" s="2">
         <v>44664</v>
@@ -2925,12 +2946,12 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="34">
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C92" s="2">
         <v>44671</v>
@@ -2939,12 +2960,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="34">
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C93" s="2">
         <v>44681</v>
@@ -2953,12 +2974,12 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="34">
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="C94" s="2">
         <v>44289</v>
@@ -2967,12 +2988,12 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="34">
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C95" s="2">
         <v>44293</v>
@@ -2981,12 +3002,12 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="34">
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C96" s="2">
         <v>44324</v>
@@ -2995,12 +3016,12 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="34">
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C97" s="2">
         <v>44411</v>
@@ -3009,12 +3030,12 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="34">
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C98" s="2">
         <v>44416</v>
@@ -3023,12 +3044,12 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="34">
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C99" s="2">
         <v>44416</v>
@@ -3037,12 +3058,12 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="34">
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C100" s="2">
         <v>44423</v>
@@ -3051,12 +3072,12 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="34">
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C101" s="2">
         <v>44424</v>
@@ -3065,12 +3086,12 @@
         <v>9.9499999999999993</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="34">
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C102" s="2">
         <v>44330</v>
@@ -3079,12 +3100,12 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="34">
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C103" s="2">
         <v>44428</v>
@@ -3093,12 +3114,12 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="34">
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C104" s="2">
         <v>44492</v>
@@ -3107,12 +3128,12 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="34">
+    <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C105" s="2">
         <v>44492</v>
@@ -3121,12 +3142,12 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="34">
+    <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C106" s="2">
         <v>44530</v>
@@ -3135,12 +3156,12 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="34">
+    <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C107" s="2">
         <v>44555</v>
@@ -3149,12 +3170,12 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="34">
+    <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C108" s="2">
         <v>44618</v>
@@ -3163,12 +3184,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="34">
+    <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C109" s="2">
         <v>44626</v>
@@ -3177,12 +3198,12 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="34">
+    <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C110" s="2">
         <v>44650</v>
@@ -3191,12 +3212,12 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="34">
+    <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C111" s="2">
         <v>44651</v>
@@ -3205,12 +3226,12 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="34">
+    <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C112" s="2">
         <v>44657</v>
@@ -3219,12 +3240,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="34">
+    <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C113" s="2">
         <v>44676</v>
@@ -3233,12 +3254,12 @@
         <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="34">
+    <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="C114" s="2">
         <v>44282</v>
@@ -3247,12 +3268,12 @@
         <v>14.85</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="34">
+    <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C115" s="2">
         <v>44324</v>
@@ -3261,12 +3282,12 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="34">
+    <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="C116" s="2">
         <v>44357</v>
@@ -3275,12 +3296,12 @@
         <v>17.28</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="34">
+    <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C117" s="2">
         <v>44444</v>
@@ -3289,12 +3310,12 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="34">
+    <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C118" s="2">
         <v>44474</v>
@@ -3303,12 +3324,12 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="34">
+    <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C119" s="2">
         <v>44478</v>
@@ -3317,12 +3338,12 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="34">
+    <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C120" s="2">
         <v>44513</v>
@@ -3331,12 +3352,12 @@
         <v>13.16</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="34">
+    <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C121" s="2">
         <v>44564</v>
@@ -3345,12 +3366,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="34">
+    <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C122" s="2">
         <v>44569</v>
@@ -3359,12 +3380,12 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="34">
+    <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C123" s="2">
         <v>44580</v>
@@ -3373,12 +3394,12 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="34">
+    <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C124" s="2">
         <v>44599</v>
@@ -3387,12 +3408,12 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="34">
+    <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C125" s="2">
         <v>44615</v>
@@ -3401,12 +3422,12 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="34">
+    <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C126" s="2">
         <v>44619</v>
@@ -3415,12 +3436,12 @@
         <v>172.8</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="34">
+    <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C127" s="2">
         <v>44636</v>
@@ -3429,12 +3450,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="34">
+    <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C128" s="2">
         <v>44658</v>
@@ -3443,12 +3464,12 @@
         <v>17.34</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="34">
+    <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C129" s="2">
         <v>44668</v>
@@ -3457,12 +3478,12 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="34">
+    <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C130" s="2">
         <v>44671</v>
@@ -3471,12 +3492,12 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="34">
+    <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C131" s="2">
         <v>44681</v>
@@ -3485,12 +3506,12 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="34">
+    <row r="132" spans="1:4">
       <c r="A132" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="C132" s="2">
         <v>44335</v>
@@ -3499,12 +3520,12 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="34">
+    <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C133" s="2">
         <v>44353</v>
@@ -3513,12 +3534,12 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="34">
+    <row r="134" spans="1:4">
       <c r="A134" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C134" s="2">
         <v>44418</v>
@@ -3527,12 +3548,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="34">
+    <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C135" s="2">
         <v>44488</v>
@@ -3541,12 +3562,12 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="34">
+    <row r="136" spans="1:4">
       <c r="A136" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C136" s="2">
         <v>44489</v>
@@ -3555,12 +3576,12 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="34">
+    <row r="137" spans="1:4">
       <c r="A137" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C137" s="2">
         <v>44537</v>
@@ -3569,12 +3590,12 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="34">
+    <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C138" s="2">
         <v>44607</v>
@@ -3583,12 +3604,12 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="34">
+    <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C139" s="2">
         <v>44619</v>
@@ -3597,12 +3618,12 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="34">
+    <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C140" s="2">
         <v>44645</v>
@@ -3611,12 +3632,12 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="34">
+    <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C141" s="2">
         <v>44650</v>
@@ -3625,12 +3646,12 @@
         <v>14.85</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="34">
+    <row r="142" spans="1:4">
       <c r="A142" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C142" s="2">
         <v>44664</v>
@@ -3639,12 +3660,12 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="34">
+    <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C143" s="2">
         <v>44680</v>
@@ -3653,12 +3674,12 @@
         <v>14.85</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="34">
+    <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="C144" s="2">
         <v>44321</v>
@@ -3667,12 +3688,12 @@
         <v>8.85</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="34">
+    <row r="145" spans="1:4">
       <c r="A145" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C145" s="2">
         <v>44353</v>
@@ -3681,12 +3702,12 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="34">
+    <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C146" s="2">
         <v>44359</v>
@@ -3695,12 +3716,12 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="34">
+    <row r="147" spans="1:4">
       <c r="A147" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C147" s="2">
         <v>44401</v>
@@ -3709,12 +3730,12 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="34">
+    <row r="148" spans="1:4">
       <c r="A148" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C148" s="2">
         <v>44404</v>
@@ -3723,12 +3744,12 @@
         <v>14.85</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="34">
+    <row r="149" spans="1:4">
       <c r="A149" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C149" s="2">
         <v>44436</v>
@@ -3737,12 +3758,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="34">
+    <row r="150" spans="1:4">
       <c r="A150" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C150" s="2">
         <v>44446</v>
@@ -3751,12 +3772,12 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="34">
+    <row r="151" spans="1:4">
       <c r="A151" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C151" s="2">
         <v>44446</v>
@@ -3765,12 +3786,12 @@
         <v>34.65</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="34">
+    <row r="152" spans="1:4">
       <c r="A152" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C152" s="2">
         <v>44449</v>
@@ -3779,12 +3800,12 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="34">
+    <row r="153" spans="1:4">
       <c r="A153" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C153" s="2">
         <v>44488</v>
@@ -3793,12 +3814,12 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="34">
+    <row r="154" spans="1:4">
       <c r="A154" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C154" s="2">
         <v>44524</v>
@@ -3807,12 +3828,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="34">
+    <row r="155" spans="1:4">
       <c r="A155" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C155" s="2">
         <v>44559</v>
@@ -3821,12 +3842,12 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="34">
+    <row r="156" spans="1:4">
       <c r="A156" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C156" s="2">
         <v>44559</v>
@@ -3835,12 +3856,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="34">
+    <row r="157" spans="1:4">
       <c r="A157" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C157" s="2">
         <v>44577</v>
@@ -3849,12 +3870,12 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="34">
+    <row r="158" spans="1:4">
       <c r="A158" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C158" s="2">
         <v>44666</v>
@@ -3863,12 +3884,12 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="34">
+    <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C159" s="2">
         <v>44673</v>
@@ -3877,12 +3898,12 @@
         <v>17.850000000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="34">
+    <row r="160" spans="1:4">
       <c r="A160" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C160" s="2">
         <v>44688</v>
@@ -3891,12 +3912,12 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="34">
+    <row r="161" spans="1:4">
       <c r="A161" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="C161" s="2">
         <v>44375</v>
@@ -3905,12 +3926,12 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="34">
+    <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C162" s="2">
         <v>44380</v>
@@ -3919,12 +3940,12 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="34">
+    <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C163" s="2">
         <v>44446</v>
@@ -3933,12 +3954,12 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="34">
+    <row r="164" spans="1:4">
       <c r="A164" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C164" s="2">
         <v>44460</v>
@@ -3947,12 +3968,12 @@
         <v>302.39999999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="34">
+    <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C165" s="2">
         <v>44494</v>
@@ -3961,12 +3982,12 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="34">
+    <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C166" s="2">
         <v>44527</v>
@@ -3975,12 +3996,12 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="34">
+    <row r="167" spans="1:4">
       <c r="A167" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C167" s="2">
         <v>44542</v>
@@ -3989,12 +4010,12 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="34">
+    <row r="168" spans="1:4">
       <c r="A168" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C168" s="2">
         <v>44558</v>
@@ -4003,12 +4024,12 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="34">
+    <row r="169" spans="1:4">
       <c r="A169" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C169" s="2">
         <v>44575</v>
@@ -4017,12 +4038,12 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="34">
+    <row r="170" spans="1:4">
       <c r="A170" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C170" s="2">
         <v>44582</v>
@@ -4031,12 +4052,12 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="34">
+    <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C171" s="2">
         <v>44604</v>
@@ -4045,12 +4066,12 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="34">
+    <row r="172" spans="1:4">
       <c r="A172" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C172" s="2">
         <v>44614</v>
@@ -4059,12 +4080,12 @@
         <v>14.85</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="34">
+    <row r="173" spans="1:4">
       <c r="A173" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C173" s="2">
         <v>44617</v>
@@ -4073,12 +4094,12 @@
         <v>4.29</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="34">
+    <row r="174" spans="1:4">
       <c r="A174" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C174" s="2">
         <v>44633</v>
@@ -4087,12 +4108,12 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="34">
+    <row r="175" spans="1:4">
       <c r="A175" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C175" s="2">
         <v>44638</v>
@@ -4101,12 +4122,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="34">
+    <row r="176" spans="1:4">
       <c r="A176" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C176" s="2">
         <v>44654</v>
@@ -4115,12 +4136,12 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="34">
+    <row r="177" spans="1:4">
       <c r="A177" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C177" s="2">
         <v>44654</v>
@@ -4129,12 +4150,12 @@
         <v>20.16</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="34">
+    <row r="178" spans="1:4">
       <c r="A178" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C178" s="2">
         <v>44657</v>
@@ -4143,12 +4164,12 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="34">
+    <row r="179" spans="1:4">
       <c r="A179" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C179" s="2">
         <v>44667</v>
@@ -4157,12 +4178,12 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="34">
+    <row r="180" spans="1:4">
       <c r="A180" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C180" s="2">
         <v>44686</v>
@@ -4171,12 +4192,12 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="34">
+    <row r="181" spans="1:4">
       <c r="A181" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="C181" s="2">
         <v>44322</v>
@@ -4185,12 +4206,12 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="34">
+    <row r="182" spans="1:4">
       <c r="A182" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C182" s="2">
         <v>44324</v>
@@ -4199,12 +4220,12 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="34">
+    <row r="183" spans="1:4">
       <c r="A183" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C183" s="2">
         <v>44352</v>
@@ -4213,12 +4234,12 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="34">
+    <row r="184" spans="1:4">
       <c r="A184" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C184" s="2">
         <v>44374</v>
@@ -4227,12 +4248,12 @@
         <v>61.44</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="34">
+    <row r="185" spans="1:4">
       <c r="A185" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C185" s="2">
         <v>44395</v>
@@ -4241,12 +4262,12 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="34">
+    <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C186" s="2">
         <v>44395</v>
@@ -4255,12 +4276,12 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="34">
+    <row r="187" spans="1:4">
       <c r="A187" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C187" s="2">
         <v>44411</v>
@@ -4269,12 +4290,12 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="34">
+    <row r="188" spans="1:4">
       <c r="A188" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C188" s="2">
         <v>44449</v>
@@ -4283,12 +4304,12 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="34">
+    <row r="189" spans="1:4">
       <c r="A189" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C189" s="2">
         <v>44484</v>
@@ -4297,12 +4318,12 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="34">
+    <row r="190" spans="1:4">
       <c r="A190" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C190" s="2">
         <v>44488</v>
@@ -4311,12 +4332,12 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="34">
+    <row r="191" spans="1:4">
       <c r="A191" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C191" s="2">
         <v>44507</v>
@@ -4325,12 +4346,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="34">
+    <row r="192" spans="1:4">
       <c r="A192" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C192" s="2">
         <v>44516</v>
@@ -4339,12 +4360,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="34">
+    <row r="193" spans="1:4">
       <c r="A193" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C193" s="2">
         <v>44526</v>
@@ -4353,12 +4374,12 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="34">
+    <row r="194" spans="1:4">
       <c r="A194" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C194" s="2">
         <v>44537</v>
@@ -4367,12 +4388,12 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="34">
+    <row r="195" spans="1:4">
       <c r="A195" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C195" s="2">
         <v>44547</v>
@@ -4381,12 +4402,12 @@
         <v>20.16</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="34">
+    <row r="196" spans="1:4">
       <c r="A196" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C196" s="2">
         <v>44596</v>
@@ -4395,12 +4416,12 @@
         <v>9.9499999999999993</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="34">
+    <row r="197" spans="1:4">
       <c r="A197" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C197" s="2">
         <v>44603</v>
@@ -4409,12 +4430,12 @@
         <v>6.64</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="34">
+    <row r="198" spans="1:4">
       <c r="A198" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C198" s="2">
         <v>44632</v>
@@ -4423,12 +4444,12 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="34">
+    <row r="199" spans="1:4">
       <c r="A199" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C199" s="2">
         <v>44636</v>
@@ -4437,12 +4458,12 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="34">
+    <row r="200" spans="1:4">
       <c r="A200" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C200" s="2">
         <v>44661</v>
@@ -4451,12 +4472,12 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="34">
+    <row r="201" spans="1:4">
       <c r="A201" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C201" s="2">
         <v>44680</v>
@@ -4465,12 +4486,12 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="34">
+    <row r="202" spans="1:4">
       <c r="A202" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="C202" s="2">
         <v>44366</v>
@@ -4479,12 +4500,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="34">
+    <row r="203" spans="1:4">
       <c r="A203" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C203" s="2">
         <v>44475</v>
